--- a/basePlan.xlsx
+++ b/basePlan.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
       <selection activeCell="C370" sqref="C370"/>
@@ -20813,6 +20813,6558 @@
         </is>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Атабаева Хаийдхон Шокиралиевна</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>НС-З 002330</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Офис Араван</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Атабаева Хаийдхон Шокиралиевна</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>НС-З 002330</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Офис Араван</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>13:40:00</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Саркуева Ташбубу Усоналиевна</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>НС-З 003382</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Офис Нарын</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Токтобекова Чолпон Мелисбековна</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>НС-З 184154</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Офис Балыкчы</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Батырбекова Бермет Курманбековна</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>НС-З 165621</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Офис Бакай-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>13:20:00</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>13:40:00</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Апылова Айнура Кыркжигитовна</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>НС-З 189304</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Офис Токмок</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Сапарбек уулу Рустамбек</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>НС-З 169815</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Офис Ала-Бука</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Бегматов Имомали Бурхонович</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>НС-З 171093</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Офис Уч-Коргон</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>13:20:00</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Маликов Акылбек Турдалиевич</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00236</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Уржанова Салкынай Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Юлдашева Гульнара Исмаиловна</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>НС-З 172053</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Офис Баткен</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Юлдашева Гульнара Исмаиловна</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>НС-З 172053</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Офис Баткен</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Абдикеримова Махабат Абийбиллаевна</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>НС-З 171193</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Офис Уч-Коргон</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Илиязова Салтанат Аныбарбековна</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Эсеналиева Чолпонай Эсеналиевна</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>НС-З 177300</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Илиязова Салтанат Аныбарбековна</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Эсеналиева Чолпонай Эсеналиевна</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>НС-З 177300</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Атабаева Хаийдхон Шокиралиевна</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>НС-З 002330</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Офис Араван</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>08:20:00</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Сатимбаева Зуура Абдигуловна</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>НС-З 151630</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>Офис Каракуль</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Мамажанова Мукадас Турсуналиевна</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>НС-З 003473</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>Офис Уч-Коргон</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Маматконова Маъмурахон</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Маликов Акылбек Турдалиевич</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00236</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Икрамидин кызы Адина</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00163</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Бахтиёр уулу Мирлан</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>НС-З 001700</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>15:20:00</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Дуйшоналиев Данилбек Алмазович</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>НС-З 170074</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Офис Ала-Бука</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Бахтиёр уулу Мирлан</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>НС-З 001700</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>13:20:00</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Дюшеева Гулжан Адамкеровна</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>НС-З 000951</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Офис Ананьево</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>19:40:00</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Серикбаева Алия Ринатовна</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>НС-З 189284</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Офис Токмок</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Князева Ольга Владимировна</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>НС-З 002096</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Офис Ак-Суу</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>13:20:00</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Асеева Нуркыз Талгартовна</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>НС-З 004047</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Офис Боконбаево</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Миталипов Бектемир Жамалидинович</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00255</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>20:40:00</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Калмаматова Чолпонай Мыйманжановна</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>НС-З 145721</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>Офис Карасуу</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Илиязова Салтанат Аныбарбековна</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Бектенасирова Айчурок Бектенасировна</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>НС-З 002584</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Офис Беловодское </t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Соорова Диларам Акимбаевна</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>НС-З 000399</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Назирбаев Жоомарт Дуйшенович</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00273</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>17:40:00</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Сейиткасым кызы Аксаамай</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00341</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Даниярова Жазгул Мухамеджановна</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>НС-З 165592</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>Офис Бакай-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>19:40:00</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Асеева Нуркыз Талгартовна</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>НС-З 004047</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Офис Боконбаево</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Дуйшембиев Айбек Акылбекович</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00128</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Саяков Бекмамат Давранович</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>НС-З 163941</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>Офис Жалалабад</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Шыгаева Элиза Амангельдиевна</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00422</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Бердали кызы Индира</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>НС-З 001279</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Офис Узген</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Бактыбекова Айпери Бактыбековна</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>НС-З 001708</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Офис Балыкчы</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>13:40:00</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Дуйшеева Жазмина Алымсейитовна</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>НС-З 167675</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Офис Нарын</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Сейиткасым кызы Аксаамай</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00341</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Сулайманов Жылдызбек Керимбаевич</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>НС-З 153072</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Офис Ташкомур</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Осмонова Кундуз Усупжановна</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00296</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Сулайманов Жылдызбек Керимбаевич</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>НС-З 153072</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>Офис Ташкомур</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Бердали кызы Индира</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>НС-З 001279</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Офис Узген</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>19:40:00</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Раимбердиева Зирек Исабековна</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>19:40:00</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Муллабаева Минажатхан Абдулажановна</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>НС-З 001867</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Офис Жалалабад</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Джакупова Гульзат Кыдырмаевна</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00119</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Муллабаева Минажатхан Абдулажановна</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>НС-З 001867</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Офис Жалалабад</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Илиязова Салтанат Аныбарбековна</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Калбаева Айсалкын Тагайбердиевна</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00182</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Калмаматова Чолпонай Мыйманжановна</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>НС-З 145721</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Офис Карасуу</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Омурова Гульмира Токоевна</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>НС-З 145714</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Офис Карасуу</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Илиязова Салтанат Аныбарбековна</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Калбаева Айсалкын Тагайбердиевна</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00182</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Аманкулова Эрмек Болотовна</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00057</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Даниярова Жазгул Мухамеджановна</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>НС-З 165592</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>Офис Бакай-Ата</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Усенова Умуткан Абдулазизовна</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00398</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Равшанбек кызы Жазгул</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Соорова Диларам Акимбаевна</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>НС-З 000399</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Шакиров Талгат Шаймергенович</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>НС-З 002871</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Дадабаев Азатбек Ганижонович</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00112</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Калбаев Жуманазар Сулайманкулович</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>НС-З 172495</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Сартбаева Бактыгуль Жапаровна</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>НС-З 184114</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Офис Балыкчы</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>20:40:00</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Сартбаева Бактыгуль Жапаровна</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>НС-З 184114</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Офис Балыкчы</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>19:20:00</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Раимбердиева Зирек Исабековна</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Джуматаев Фархат Анарбекович</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>НС-З 161702</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Офис Беловодское </t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>19:20:00</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Маматконова Маъмурахон</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>19:40:00</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Торошова Айпери Ырысбековна</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00378</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Шералиева Нурсулуу Умаралиевна</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00420</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Осмоналиев Марат Каканович</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Асеева Нуркыз Талгартовна</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>НС-З 004047</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Офис Боконбаево</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Осмоналиев Марат Каканович</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Курумшуева Наргиза Кызайбековна</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00226</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Осмоналиев Марат Каканович</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Зикирбай кызы Гулиза</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>НС-З 169240</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Офис Узген</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>15:40:00</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Осмоналиев Марат Каканович</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Кожоева Зарина Акылбековна</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00210</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Осмоналиев Марат Каканович</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Мамытова Рахат Адыловна</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00247</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Калыкулова Буузайда Абдумаликовна</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Калыкулова Буузайда Абдумаликовна</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Туралиева Гульнара Асаналиевна</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Атабаева Хаийдхон Шокиралиевна</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>НС-З 002330</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>Офис Араван</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Макилова Алтынай Кубатбековна</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00233</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Торошова Айпери Ырысбековна</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00378</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мамадали кызы Айжана </t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00237</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>10:40:00</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мамадали кызы Айжана </t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00237</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Молдокулов Калысбек Молдокулович</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00257</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Сайнидинова Чолпон Асыранкуловна</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00320</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>11:40:00</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Ормонова Жылдызкан Абдиманнаповна</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00286</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Сабырова Асель Жаныбековна</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00313</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Кимсанов Заирбек Замирбекович</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00208</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Темиржанов Эркин Анаркулович</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00366</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>13:20:00</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Карабаева Мастура Назаркуловна </t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>13:40:00</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Тургунбаев Адилет Тургунбаевич</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00380</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Кыштобаева Гульсана Казиевна</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Бактыбек уулу Кыялбек</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>Организация лечения</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Нажимудинова Санурахон Ташалыевна</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00272</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Калыкулова Буузайда Абдумаликовна</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Раимкулова Асель Доутбековна</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>НС-З 166720</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Офис Кызыладыр</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>17:20:00</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Салимова Давлатпошо Абдурахманжановна</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00323</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>17:40:00</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Каратайева Айсулуу</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Джолдошбек кызы Гулкайыр</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>НС-З 183569</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Султаева Назгуль</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>18:20:00</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Абдираимов Пардавай Назырович</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00007</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Сопиев Адилет Акаевич</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>10:40:00</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Избасарова </t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Муканбетова Мээрим Акжоловна</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Тургуналиева Сайкал Узбековна</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>НС-З 156896</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Каргабаев Нурлан Басылбекович</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00193</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>13:20:00</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Атабекова Салтанат Кизаевна</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>13:40:00</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Жолдошев Бактыбек Мамасыдыкович</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00146</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Мамаева Жылдыз Кенжебековна</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>НС-З 184450</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>Офис Кемин</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Анарбаева Нурзада Молдогазиева </t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Анарбаева Нурзада Молдогазиева </t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Караева Дилназа Абдисаматовна </t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>15:20:00</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Сабирова Дуруя Мелибаевна</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>НС-З 001902</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>15:40:00</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Жолдошев Бактыбек Мамасыдыкович</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00146</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Кыпчакбаева Гулнара Джуматаевна</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Токтомбет Кызы Миргул</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>НС-З 164742</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>Офис Атбашы</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Урманбетова Айнура Асыранкуловна</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00396</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Каримжанова МАВЛУДА Арибжановна</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Абдухаметов Алишер Яковлевич</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Шакиев Курсантбек Тагайбекович</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00413</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Сайнидинова Чолпон Асыранкуловна</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00320</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>17:20:00</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Аман кызы Одина</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>17:20:00</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Бекташова Улара Абдыманаповна</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>НС-З 169599</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Офис Куршаб</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>17:40:00</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кожомкулов Бек Турсунбекович </t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Жумакадырова Бегимай Азаматовна</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Орозбаева Муборак Мадаминовна</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>НС-З 192653</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Офис Уч-Коргон</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>19:20:00</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Раимбердиева Зирек Исабековна</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Солпуева Каныкей Мусажановна</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>НС-З 176248</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Офис Кемин</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Убайдыллаева Кенже Убайдыллаевна</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сулайманова Зарина Эриковна </t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00350</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Раимбердиева Зирек Исабековна</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Джуматаев Фархат Анарбекович</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>НС-З 161702</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Офис Беловодское </t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>21:20:00</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Раимбердиева Зирек Исабековна</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Абдукаримова Бегимай Толонбаевна</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00012</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>08:20:00</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Иманкулов Азамат Шыгайбайевич</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>НС-З 183623</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>Офис Новопавловка</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Усманова Феруза Хабибуллоевна</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>НС-З 172394</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>Офис Исфана</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Бекташова Улара Абдыманаповна</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>НС-З 169599</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Офис Куршаб</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>10:40:00</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Джумалиева Чынар Кадыровна</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>НС-З 176846</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Офис Кант</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Ашимова Гулзат Топчубаевна</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00082</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Тешабаева Яркинай Жумабаевна</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>НС-З 004628</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Офис Кадамжай</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Идирисова Гулназ Дженишбековна</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00162</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Шакеев Самат Жылкычыевич</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00412</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>14:20:00</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Маматконова Маъмурахон</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>14:40:00</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Адикинова Кыял Тарановна</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00026</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Бекташова Улара Абдыманаповна</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>НС-З 169599</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>Офис Куршаб</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>15:20:00</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Айылчиева Нургул Алтынбековна</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>НС-З 181579</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Офис Талас </t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>15:40:00</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Калыкулова Буузайда Абдумаликовна</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>15:40:00</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Ибраимов Нурсултанбек Ибраимович</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Айдаралиев Темирбек Мустапакулович </t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Бекташова Улара Абдыманаповна</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>НС-З 169599</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Офис Куршаб</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>16:20:00</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Калыкулова Буузайда Абдумаликовна</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Ашимова Гулзат Топчубаевна</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>ДМС-МД 00082</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Сотрудники БФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>17:20:00</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Таштанбаева Гулсад Жанышбековна</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>НС-З 191754</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Офис Аламединский рынок</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Русланова Айпери Руслановна</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Немат кызы Венера</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Специалист</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>НЕТ ПОЛИСА</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1">
     <sortState ref="A2:H474">
